--- a/BDD PRODUIT.xlsx
+++ b/BDD PRODUIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adnan\OneDrive\Documents\Coursera\Mazars\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C681691-B999-4FD3-810B-ED725E1EBB75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBBE42D-930F-494C-A229-05E9701BDB2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8055" yWindow="3705" windowWidth="17280" windowHeight="11385" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identification du Produit" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="75">
   <si>
     <t>Secteur</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>Continent</t>
+  </si>
+  <si>
+    <t>Expo_Impo_Intra_2019</t>
+  </si>
+  <si>
+    <t>854442 Conducteurs électriques, pour tension &lt;=1000V, avec pièces de connexion</t>
+  </si>
+  <si>
+    <t>Nom</t>
   </si>
 </sst>
 </file>
@@ -410,7 +419,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,9 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,9 +460,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,6 +471,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -754,18 +760,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,10 +785,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -795,7 +804,10 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2">
         <v>31656630</v>
       </c>
     </row>
@@ -828,7 +840,7 @@
       <c r="D1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -836,13 +848,13 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
@@ -853,13 +865,13 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
@@ -870,13 +882,13 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
@@ -887,13 +899,13 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E5" t="s">
@@ -910,7 +922,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +943,7 @@
       <c r="D1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -939,13 +951,13 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
@@ -956,13 +968,13 @@
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
@@ -973,13 +985,13 @@
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
@@ -995,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19006605-D0D0-4B9A-990E-A18604723D47}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1030,7 @@
       <c r="D1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1026,13 +1038,13 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
@@ -1043,13 +1055,13 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
@@ -1060,13 +1072,13 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>49</v>
       </c>
       <c r="E4" t="s">
@@ -1104,7 +1116,7 @@
       <c r="D1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1118,7 +1130,7 @@
       <c r="C2" s="2">
         <v>1843667</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="15">
         <v>2.5216532658189256E-2</v>
       </c>
       <c r="E2" t="s">
@@ -1135,7 +1147,7 @@
       <c r="C3" s="2">
         <v>9094067</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="15">
         <v>0.34593863987164913</v>
       </c>
       <c r="E3" t="s">
@@ -1152,7 +1164,7 @@
       <c r="C4" s="2">
         <v>4704794</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="15">
         <v>0.27087466968181922</v>
       </c>
       <c r="E4" t="s">
@@ -1169,7 +1181,7 @@
       <c r="C5" s="2">
         <v>16010937</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="15">
         <v>0.34615468353237611</v>
       </c>
       <c r="E5" t="s">
@@ -1186,8 +1198,8 @@
       <c r="C6" s="2">
         <v>41788</v>
       </c>
-      <c r="D6" s="5">
-        <v>0</v>
+      <c r="D6" s="15">
+        <v>1.18154742559663E-2</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -1202,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0680822-9363-4801-A022-3058CDE07226}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,30 +1227,30 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>5477463</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.17302735635473518</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>4.9502234540250933E-2</v>
       </c>
       <c r="E2" t="s">
@@ -1246,16 +1258,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2">
         <v>2583267</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>8.1602716397797245E-2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>5.1356171656158356E-3</v>
       </c>
       <c r="E3" t="s">
@@ -1263,16 +1275,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>2413935</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>7.6253694723664528E-2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>3.0329909621658491E-2</v>
       </c>
       <c r="E4" t="s">
@@ -1280,16 +1292,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>2135087</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>6.744517657122695E-2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>7.5793257710325967E-3</v>
       </c>
       <c r="E5" t="s">
@@ -1297,16 +1309,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>1756554</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>5.5487713000404656E-2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>2.7783090065346405E-2</v>
       </c>
       <c r="E6" t="s">
@@ -1314,16 +1326,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>1747549</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>5.5203254420953841E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>1.4295598850530666E-2</v>
       </c>
       <c r="E7" t="s">
@@ -1331,16 +1343,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>1012436</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3.1981799705148653E-2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>3.5827716359964956E-2</v>
       </c>
       <c r="E8" t="s">
@@ -1348,16 +1360,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>712812</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>2.2516989332092518E-2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>6.7717123070546004E-2</v>
       </c>
       <c r="E9" t="s">
@@ -1365,16 +1377,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>683799</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2.1600498852846938E-2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3.2593060913397309E-2</v>
       </c>
       <c r="E10" t="s">
@@ -1382,16 +1394,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>649922</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>2.0530359675050694E-2</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>3.6666241101365404E-2</v>
       </c>
       <c r="E11" t="s">
@@ -1408,7 +1420,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,30 +1432,30 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>10380145</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.32746770521062302</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>5.3151857059281715E-2</v>
       </c>
       <c r="E2" t="s">
@@ -1451,16 +1463,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>2624600</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>8.2799588935973542E-2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>6.7348594415739704E-2</v>
       </c>
       <c r="E3" t="s">
@@ -1468,16 +1480,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>2389300</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>7.537646035385262E-2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>5.4602983050366927E-2</v>
       </c>
       <c r="E4" t="s">
@@ -1485,16 +1497,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>2019379</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>6.3706374726029608E-2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>-2.7351532566678882E-2</v>
       </c>
       <c r="E5" t="s">
@@ -1502,16 +1514,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>1788162</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>5.641205461820023E-2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>4.1659449081575151E-2</v>
       </c>
       <c r="E6" t="s">
@@ -1519,16 +1531,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2">
         <v>1087127</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3.4296147497217905E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.4163592432756511</v>
       </c>
       <c r="E7" t="s">
@@ -1536,16 +1548,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>989479</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3.1215596456899402E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>3.8470977808953144E-3</v>
       </c>
       <c r="E8" t="s">
@@ -1553,16 +1565,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>968292</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>3.0547199409430653E-2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>5.360105432370732E-2</v>
       </c>
       <c r="E9" t="s">
@@ -1570,16 +1582,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>836520</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2.6390121213411791E-2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3.584269557658426E-2</v>
       </c>
       <c r="E10" t="s">
@@ -1587,16 +1599,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2">
         <v>806798</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>2.5452466186986811E-2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>2.3294481316209481E-3</v>
       </c>
       <c r="E11" t="s">
@@ -1613,7 +1625,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,14 +1633,14 @@
     <col min="3" max="3" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1675,7 +1687,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,30 +1699,30 @@
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>379975</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.4761519876894082</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>1.3289454662196221E-2</v>
       </c>
       <c r="E2" t="s">
@@ -1718,16 +1730,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>115568</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.1448198773953274</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.22560951245547445</v>
       </c>
       <c r="E3" t="s">
@@ -1735,16 +1747,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>73049</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>9.1538723728465235E-2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>4.3497105924646284E-2</v>
       </c>
       <c r="E4" t="s">
@@ -1752,16 +1764,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="2">
         <v>71134</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>8.9139010440945757E-2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>2.3215397839090102E-2</v>
       </c>
       <c r="E5" t="s">
@@ -1769,16 +1781,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="2">
         <v>27254</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>3.4152368636060609E-2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>8.5166238810871597E-2</v>
       </c>
       <c r="E6" t="s">
@@ -1786,16 +1798,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2">
         <v>11229</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1.4071216974180839E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>7.8501610346451312E-2</v>
       </c>
       <c r="E7" t="s">
@@ -1803,16 +1815,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>10330</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1.2944667498734354E-2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>1.6209516352618802E-2</v>
       </c>
       <c r="E8" t="s">
@@ -1820,16 +1832,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>9802</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>1.2283023312932637E-2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.24467376202447877</v>
       </c>
       <c r="E9" t="s">
@@ -1837,16 +1849,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="2">
         <v>6666</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>8.3532578457466804E-3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>-5.0658851181511921E-2</v>
       </c>
       <c r="E10" t="s">
@@ -1854,16 +1866,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="2">
         <v>6533</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>8.1865936853079899E-3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>-8.5936436369072222E-2</v>
       </c>
       <c r="E11" t="s">
@@ -1880,7 +1892,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,30 +1904,30 @@
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>989479</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.53669073645077991</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>3.8470977808953144E-3</v>
       </c>
       <c r="E2" t="s">
@@ -1923,16 +1935,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>806798</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.43760505557673918</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>2.3294481316209481E-3</v>
       </c>
       <c r="E3" t="s">
@@ -1940,16 +1952,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>39865</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2.1622668301813721E-2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>6.5876921742261674E-2</v>
       </c>
       <c r="E4" t="s">
@@ -1957,16 +1969,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="2">
         <v>2031</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1.1016089131063256E-3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.87880012216465753</v>
       </c>
       <c r="E5" t="s">
@@ -1974,16 +1986,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="2">
         <v>1580</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>8.5698773151550683E-4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>-0.43482112888252933</v>
       </c>
       <c r="E6" t="s">
@@ -1991,16 +2003,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>1181</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>6.4057120944291997E-4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>1.0804848186635438</v>
       </c>
       <c r="E7" t="s">
@@ -2008,16 +2020,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>669</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>3.628637926480216E-4</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.59928766274059719</v>
       </c>
       <c r="E8" t="s">
@@ -2025,16 +2037,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>483</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>2.6197789514049991E-4</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>5.5014516333163677E-2</v>
       </c>
       <c r="E9" t="s">
@@ -2042,16 +2054,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="2">
         <v>223</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>1.2095459754934053E-4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.13483051465428098</v>
       </c>
       <c r="E10" t="s">
@@ -2059,16 +2071,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="2">
         <v>215</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>1.1661541916192024E-4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>-0.61714011223800447</v>
       </c>
       <c r="E11" t="s">
@@ -2085,11 +2097,12 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" customWidth="1"/>
     <col min="6" max="6" width="68.5703125" customWidth="1"/>
   </cols>
@@ -2110,7 +2123,7 @@
       <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2121,10 +2134,10 @@
       <c r="B2" s="2">
         <v>806798</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>0.04</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2141,10 +2154,10 @@
       <c r="B3" s="2">
         <v>797</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>0.03</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>1E-3</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2164,7 +2177,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,33 +2187,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>10380145</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="18">
         <v>0.32746770521062302</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="18">
         <v>5.3151857059281715E-2</v>
       </c>
       <c r="E2" t="s">
@@ -2208,16 +2221,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>2624600</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="18">
         <v>8.2799588935973542E-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="18">
         <v>6.7348594415739704E-2</v>
       </c>
       <c r="E3" t="s">
@@ -2225,16 +2238,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>2389300</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="18">
         <v>7.537646035385262E-2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="18">
         <v>5.4602983050366927E-2</v>
       </c>
       <c r="E4" t="s">
@@ -2242,16 +2255,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>2019379</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="18">
         <v>6.3706374726029608E-2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="18">
         <v>-2.7351532566678882E-2</v>
       </c>
       <c r="E5" t="s">
@@ -2259,16 +2272,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>1788162</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="18">
         <v>5.641205461820023E-2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="18">
         <v>4.1659449081575151E-2</v>
       </c>
       <c r="E6" t="s">
@@ -2276,16 +2289,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>1087127</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="18">
         <v>3.4296147497217905E-2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="18">
         <v>0.4163592432756511</v>
       </c>
       <c r="E7" t="s">
@@ -2293,16 +2306,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>989479</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="18">
         <v>3.1215596456899402E-2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="18">
         <v>3.8470977808953144E-3</v>
       </c>
       <c r="E8" t="s">
@@ -2310,16 +2323,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>968292</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="18">
         <v>3.0547199409430653E-2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="18">
         <v>5.360105432370732E-2</v>
       </c>
       <c r="E9" t="s">
@@ -2327,16 +2340,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>836520</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="18">
         <v>2.6390121213411791E-2</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="18">
         <v>3.584269557658426E-2</v>
       </c>
       <c r="E10" t="s">
@@ -2344,16 +2357,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>806798</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="18">
         <v>2.5452466186986811E-2</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="18">
         <v>2.3294481316209481E-3</v>
       </c>
       <c r="E11" t="s">
@@ -2361,16 +2374,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>576097</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <v>1.817442459317517E-2</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="18">
         <v>3.5214722535346965E-2</v>
       </c>
       <c r="E12" t="s">
@@ -2378,16 +2391,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>540544</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="18">
         <v>1.705281604884816E-2</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="18">
         <v>6.0031862370063971E-2</v>
       </c>
       <c r="E13" t="s">
@@ -2395,16 +2408,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>537760</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <v>1.6964987787171048E-2</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="18">
         <v>1.6919244022206792E-2</v>
       </c>
       <c r="E14" t="s">
@@ -2412,16 +2425,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>520004</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="18">
         <v>1.6404830238917163E-2</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="18">
         <v>2.5424558655045226E-2</v>
       </c>
       <c r="E15" t="s">
@@ -2429,16 +2442,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>482376</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="18">
         <v>1.5217760615933542E-2</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="18">
         <v>-2.2176989298684169E-2</v>
       </c>
       <c r="E16" t="s">
@@ -2446,16 +2459,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>460517</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="18">
         <v>1.4528163643232389E-2</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="18">
         <v>9.6645355944475986E-2</v>
       </c>
       <c r="E17" t="s">
